--- a/Test Scenario Reza.xlsx
+++ b/Test Scenario Reza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\WebFinalProjekKatalonReza-KSAT006ONL015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDB42C-BC49-49DE-8339-45DC9CF6D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D99B3B1-F6B7-4AF3-9DFF-AEFB6CD9F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2AC6C66-49C2-4843-8057-F916FD75126F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Created By</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>001-Create-Account</t>
-  </si>
-  <si>
     <t>Create Account</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Redirect to dashboard account</t>
   </si>
   <si>
-    <t>002-Check-Out</t>
-  </si>
-  <si>
     <t>Check Out</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>7. Click "Place Order"</t>
   </si>
   <si>
-    <t>Reirect to third party payment</t>
-  </si>
-  <si>
     <t>8. Click "Payment" in third party</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>Redirect to Login page</t>
   </si>
   <si>
-    <t>004-Login</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>3. Click Login button</t>
   </si>
   <si>
-    <t>005-Logout</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>Reza Yusuf Maulana</t>
   </si>
   <si>
-    <t>003- Check Home Page</t>
-  </si>
-  <si>
     <t>Check Home Page</t>
   </si>
   <si>
@@ -224,6 +206,42 @@
   </si>
   <si>
     <t>Test to check homepage feature can be clicked or shown</t>
+  </si>
+  <si>
+    <t>TC_002-Login</t>
+  </si>
+  <si>
+    <t>TC_003 - Check Home Page</t>
+  </si>
+  <si>
+    <t>TC_004-Check-Out</t>
+  </si>
+  <si>
+    <t>TC_005-Logout</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>PASS?NOT</t>
+  </si>
+  <si>
+    <t>Redirect to Login page with no account login</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Redirect to dashboard account with no Login</t>
+  </si>
+  <si>
+    <t>Not Passed</t>
+  </si>
+  <si>
+    <t>Redirect to third party payment</t>
+  </si>
+  <si>
+    <t>TC_001-Create-Account</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +308,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -401,27 +431,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -434,47 +530,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166C9CD7-D925-4BDD-9A5A-4FEB14A66AFB}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,414 +876,466 @@
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="93" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="10" t="s">
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="10" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="10" t="s">
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="10" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="10" t="s">
+      <c r="G22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="10" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="10" t="s">
+      <c r="G23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="10" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="10" t="s">
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="10" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="10" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="10" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E20:E24"/>
+  <mergeCells count="23">
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A3:B3"/>
@@ -1217,7 +1344,19 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="66" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>